--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value288.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value288.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211036580406694</v>
+        <v>1.038712620735168</v>
       </c>
       <c r="B1">
-        <v>1.950726187650592</v>
+        <v>1.372332334518433</v>
       </c>
       <c r="C1">
-        <v>2.03542285205601</v>
+        <v>2.193686008453369</v>
       </c>
       <c r="D1">
-        <v>2.392998121948933</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.405607935735992</v>
+        <v>2.004915475845337</v>
       </c>
     </row>
   </sheetData>
